--- a/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_2/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>136.7879211095126</v>
       </c>
       <c r="H30" t="n">
-        <v>37.49883851922021</v>
+        <v>37.49883851922023</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>126.9795499020044</v>
       </c>
       <c r="H36" t="n">
-        <v>42.53787864044289</v>
+        <v>42.53787864044291</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>177.1997101572242</v>
+        <v>177.199710157224</v>
       </c>
       <c r="H53" t="n">
-        <v>84.57978930862333</v>
+        <v>84.57978930862329</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>162.3435851551113</v>
+        <v>162.3435851551117</v>
       </c>
       <c r="H54" t="n">
-        <v>85.58253917542048</v>
+        <v>85.58253917542058</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>182.4338724290928</v>
+        <v>182.433872429093</v>
       </c>
       <c r="H55" t="n">
-        <v>85.10063577800894</v>
+        <v>85.10063577800899</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>199.2883401937694</v>
+        <v>199.2883401937691</v>
       </c>
       <c r="H59" t="n">
-        <v>38.68630212581542</v>
+        <v>38.68630212581535</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>202.112405612996</v>
+        <v>202.1124056129964</v>
       </c>
       <c r="H60" t="n">
-        <v>36.01463228447626</v>
+        <v>36.01463228447641</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>213.5057013047357</v>
+        <v>213.5057013047359</v>
       </c>
       <c r="H61" t="n">
-        <v>33.74138643276756</v>
+        <v>33.74138643276763</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>121.3062953557348</v>
+        <v>121.306295355735</v>
       </c>
       <c r="H62" t="n">
-        <v>47.57469215710053</v>
+        <v>47.57469215710063</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>160.7531905881637</v>
+        <v>160.7531905881635</v>
       </c>
       <c r="H65" t="n">
-        <v>41.75578010323531</v>
+        <v>41.75578010323524</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>176.4254533378519</v>
+        <v>176.4254533378523</v>
       </c>
       <c r="H66" t="n">
-        <v>41.77913934498179</v>
+        <v>41.77913934498196</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>147.5991152741716</v>
+        <v>147.5991152741718</v>
       </c>
       <c r="H67" t="n">
-        <v>45.6875442243374</v>
+        <v>45.68754422433749</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>133.4562357834215</v>
+        <v>133.4562357834217</v>
       </c>
       <c r="H68" t="n">
-        <v>64.17258220414936</v>
+        <v>64.17258220414944</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>120.1074173110316</v>
+        <v>120.1074173110314</v>
       </c>
       <c r="H71" t="n">
-        <v>86.75266888423184</v>
+        <v>86.75266888423181</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>142.9672413970233</v>
+        <v>142.9672413970237</v>
       </c>
       <c r="H72" t="n">
-        <v>94.09812894181799</v>
+        <v>94.09812894181813</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>210.9673422174804</v>
+        <v>210.9673422174806</v>
       </c>
       <c r="H73" t="n">
-        <v>95.31373979187552</v>
+        <v>95.31373979187562</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>72.90939031462116</v>
+        <v>72.90939031462098</v>
       </c>
       <c r="H75" t="n">
-        <v>115.7462750670357</v>
+        <v>115.7462750670356</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>124.1630330044159</v>
+        <v>124.1630330044163</v>
       </c>
       <c r="H76" t="n">
-        <v>106.1779416691793</v>
+        <v>106.1779416691794</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>111.5146514711233</v>
+        <v>111.5146514711231</v>
       </c>
       <c r="H78" t="n">
-        <v>77.55612813783334</v>
+        <v>77.55612813783331</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>130.3669793827022</v>
+        <v>130.3669793827019</v>
       </c>
       <c r="H79" t="n">
-        <v>75.63261387605608</v>
+        <v>75.632613876056</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>203.6893757448526</v>
+        <v>203.6893757448528</v>
       </c>
       <c r="H81" t="n">
-        <v>43.80428159068163</v>
+        <v>43.80428159068168</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>81.35666396193231</v>
+        <v>81.3566639619321</v>
       </c>
       <c r="H82" t="n">
-        <v>59.32172631049959</v>
+        <v>59.32172631049952</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>128.8119213106078</v>
+        <v>128.8119213106076</v>
       </c>
       <c r="H83" t="n">
-        <v>56.97730821256094</v>
+        <v>56.97730821256089</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>198.0593043870236</v>
+        <v>198.0593043870238</v>
       </c>
       <c r="H84" t="n">
-        <v>44.93006091699947</v>
+        <v>44.93006091699952</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>94.00808967027052</v>
+        <v>94.00808967027096</v>
       </c>
       <c r="H85" t="n">
-        <v>80.03671228999708</v>
+        <v>80.03671228999714</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>161.8213695423337</v>
+        <v>161.8213695423335</v>
       </c>
       <c r="H87" t="n">
-        <v>36.97428252312347</v>
+        <v>36.97428252312339</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>167.6797645889321</v>
+        <v>167.6797645889319</v>
       </c>
       <c r="H88" t="n">
-        <v>33.23818728437522</v>
+        <v>33.23818728437513</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>206.9262408143852</v>
+        <v>206.9262408143854</v>
       </c>
       <c r="H89" t="n">
-        <v>27.7764347865376</v>
+        <v>27.7764347865377</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>189.7170844080719</v>
+        <v>189.7170844080717</v>
       </c>
       <c r="H90" t="n">
-        <v>31.34267405320844</v>
+        <v>31.34267405320833</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>84.801993565351</v>
+        <v>84.80199356535144</v>
       </c>
       <c r="H91" t="n">
-        <v>54.57167217871708</v>
+        <v>54.57167217871717</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>180.1114087898988</v>
+        <v>180.1114087898992</v>
       </c>
       <c r="H92" t="n">
-        <v>40.22937288539961</v>
+        <v>40.22937288539983</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>178.149060902781</v>
+        <v>178.1490609027812</v>
       </c>
       <c r="H93" t="n">
-        <v>33.00524923673353</v>
+        <v>33.00524923673363</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>136.0855162555212</v>
+        <v>136.0855162555209</v>
       </c>
       <c r="H94" t="n">
-        <v>72.89436678889297</v>
+        <v>72.89436678889285</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>130.7636396538183</v>
+        <v>130.7636396538187</v>
       </c>
       <c r="H95" t="n">
-        <v>74.15347608229067</v>
+        <v>74.15347608229077</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>218.7381897125183</v>
+        <v>218.7381897125181</v>
       </c>
       <c r="H97" t="n">
-        <v>38.61019931264094</v>
+        <v>38.61019931264087</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>160.112649229996</v>
+        <v>160.1126492299957</v>
       </c>
       <c r="H98" t="n">
-        <v>48.08690062858241</v>
+        <v>48.08690062858235</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>181.779265094535</v>
+        <v>181.7792650945355</v>
       </c>
       <c r="H99" t="n">
-        <v>49.35279226931807</v>
+        <v>49.35279226931819</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>191.1464448093901</v>
+        <v>191.1464448093903</v>
       </c>
       <c r="H101" t="n">
-        <v>56.72689205025049</v>
+        <v>56.72689205025054</v>
       </c>
     </row>
   </sheetData>
